--- a/data/trans_bre/P2C_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,29%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 7,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 2,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,38; 21,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,44; 892,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,1; 107,44</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,31%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 3,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 1,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,01; 3,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,75; 19,8</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,71%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 18,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,47; 83,26</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,78%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 3,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,29; 6,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,09; 46,44</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,85%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; 1,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,4; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; -0,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,18; 21,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,09; 276,38</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,5%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 1,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; 14,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,64; 92,16</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,95%</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 1,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,61; 8,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,44; 306,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,06; 121,85</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,05%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,21%</t>
         </is>
       </c>
     </row>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 1,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 0,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 1,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 7,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,03; 658,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 391,6</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,32%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 1,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 0,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 2,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,44; 216,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,16; 185,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,68; 98,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,36; 13,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 0,0</t>
+          <t>-4,61; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 7,27</t>
+          <t>-0,72; 7,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,87</t>
+          <t>-0,97; 2,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 21,34</t>
+          <t>-25,32; 18,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 892,61</t>
+          <t>-42,68; 962,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,1; 107,44</t>
+          <t>-49,12; 86,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,94</t>
+          <t>0,34; 3,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,5</t>
+          <t>-0,6; 1,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,49</t>
+          <t>-1,71; 1,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 3,0</t>
+          <t>-20,71; 3,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,75; 19,8</t>
+          <t>-62,35; 24,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,23</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,78</t>
+          <t>-1,28; 1,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 18,67</t>
+          <t>-12,82; 17,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 83,26</t>
+          <t>-33,31; 81,14</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,0</t>
+          <t>-2,86; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,81</t>
+          <t>0,62; 3,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,26</t>
+          <t>0,35; 3,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 6,06</t>
+          <t>-22,11; 5,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 46,44</t>
+          <t>-59,04; 39,64</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 1,73</t>
+          <t>-6,0; 2,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 0,0</t>
+          <t>-6,8; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -0,75</t>
+          <t>-8,21; -0,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 21,09</t>
+          <t>-7,21; 21,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,09; 276,38</t>
+          <t>-29,67; 276,45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,13</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,0</t>
+          <t>-3,35; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,44</t>
+          <t>-3,61; 1,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 14,34</t>
+          <t>-9,34; 13,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 92,16</t>
+          <t>-31,02; 84,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,46</t>
+          <t>-0,72; 0,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,56</t>
+          <t>-1,87; 1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,09</t>
+          <t>-1,39; 1,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 8,57</t>
+          <t>-24,87; 8,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-87,44; 306,9</t>
+          <t>-82,98; 343,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-96,06; 121,85</t>
+          <t>-95,02; 128,44</t>
         </is>
       </c>
     </row>
@@ -1368,27 +1368,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,45</t>
+          <t>-1,4; 1,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,71</t>
+          <t>-0,79; 0,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,97</t>
+          <t>-0,69; 1,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,88</t>
+          <t>0,96; 8,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 820,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-62,03; 658,06</t>
+          <t>-57,58; 645,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,06; 391,6</t>
+          <t>9,15; 388,09</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,72</t>
+          <t>-0,33; 0,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,0</t>
+          <t>-0,22; 0,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,61</t>
+          <t>-0,63; 0,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 2,23</t>
+          <t>-11,92; 1,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 216,68</t>
+          <t>-43,24; 243,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 185,9</t>
+          <t>-28,56; 187,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 98,53</t>
+          <t>-50,52; 101,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 13,75</t>
+          <t>-63,94; 10,82</t>
         </is>
       </c>
     </row>
